--- a/output/features_test.xlsx
+++ b/output/features_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,13 +516,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.288413558897724</v>
+        <v>1.204635562152593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4751490546386644</v>
+        <v>0.5164142086778355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5050713465141941</v>
+        <v>-0.4949471035713341</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -604,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04478961072025625</v>
+        <v>0.02612455343232433</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1522677285881392</v>
+        <v>-0.131799736966969</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03315732420521746</v>
+        <v>-0.04774128120385817</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2053782732120563</v>
+        <v>0.2377012584936346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.714928479005854</v>
+        <v>-0.6938166583610562</v>
       </c>
       <c r="E6" t="n">
-        <v>1.427642702044684</v>
+        <v>1.50048043370178</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.281625391541205</v>
+        <v>-3.043726160454692</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -736,13 +736,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006704744479377963</v>
+        <v>-0.02267369026397723</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.547042773012526</v>
+        <v>-0.5347210145292786</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0511357535353397</v>
+        <v>0.07834601818330554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6828326822718355</v>
+        <v>-0.6634013146873341</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3547046966440968</v>
+        <v>0.391977447319969</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04444375822157564</v>
+        <v>-0.0584367866715407</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4486391764324031</v>
+        <v>-0.4414695762329215</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1857138882333514</v>
+        <v>0.2173850525576564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6098235622285184</v>
+        <v>-0.5942147636932626</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3424144560324062</v>
+        <v>0.3792798186099827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.582028571659514</v>
+        <v>3.378162813913204</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05501794154758086</v>
+        <v>0.03581735526241163</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8401373563748277</v>
+        <v>-0.8124699221431594</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08739196333982688</v>
+        <v>0.1158040228777654</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1132,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2680562321706721</v>
+        <v>-0.2703414887500009</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.281625391541205</v>
+        <v>-3.043726160454692</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2049227418916686</v>
+        <v>-0.2105135050401517</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2211469907901835</v>
+        <v>-0.2258882941499454</v>
       </c>
       <c r="E18" t="n">
-        <v>1.304740295927778</v>
+        <v>1.373504146601916</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1264,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3026140877814386</v>
+        <v>0.2704500064596972</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02875081044064899</v>
+        <v>-0.004188568431605901</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4680377348980188</v>
+        <v>-0.4598524762555008</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.04718617135818485</v>
+        <v>-0.02323501149658547</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2609953623461177</v>
+        <v>0.2310103300476179</v>
       </c>
       <c r="E21" t="n">
-        <v>1.038656586684677</v>
+        <v>1.098600485030711</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.4444067636762688</v>
+        <v>-0.4374587616825405</v>
       </c>
       <c r="E22" t="n">
-        <v>1.550545108161589</v>
+        <v>1.627456720801643</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.9465137139678432</v>
+        <v>-0.8248677996971884</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5385779475002574</v>
+        <v>-0.5266993854285167</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.5325820294290671</v>
+        <v>-0.5210173981488103</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1375499902922001</v>
+        <v>0.1140282389948402</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3403084099470049</v>
+        <v>-0.3260734562297605</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.281625391541205</v>
+        <v>-3.043726160454692</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.328015412882575</v>
+        <v>-0.3271613615470644</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2993986138914892</v>
+        <v>0.3348381181250303</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.08712058684593003</v>
+        <v>-0.09887916672121529</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5095617283513979</v>
+        <v>0.5519675690657974</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1660,13 +1660,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.04479645928458684</v>
+        <v>-0.05877102121740578</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3301242154207156</v>
+        <v>0.3665821898999963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5777209169301692</v>
+        <v>0.531152952234459</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3239790951148703</v>
+        <v>0.3602333755450031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1748,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>4.527267420529512</v>
+        <v>4.273911396831616</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1792,13 +1792,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2595914066584035</v>
+        <v>-0.262319859649239</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1836,13 +1836,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2394874460667655</v>
+        <v>-0.2432684905349295</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1175030528384688</v>
+        <v>0.146913213217232</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1880,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5547953478344417</v>
+        <v>0.5094277067532289</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.114069552754524</v>
+        <v>-1.93429698007594</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1924,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1714161409056052</v>
+        <v>-0.1787612231829692</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5279970892689337</v>
+        <v>0.571014012130777</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05501794154758086</v>
+        <v>0.03581735526241163</v>
       </c>
       <c r="E35" t="n">
-        <v>2.549127157861448</v>
+        <v>2.659139053488036</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3558787968604593</v>
+        <v>-0.3535658906704056</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8073361575147867</v>
+        <v>-0.781386109377707</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.9194950955523461</v>
+        <v>-0.8876726949628022</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1795687679275061</v>
+        <v>0.2110362382026632</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2144,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4719174465911419</v>
+        <v>-0.4635290562600167</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1209276150283283</v>
+        <v>-0.09942078375650372</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4408729044818263</v>
+        <v>0.4014699484388083</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.03243788262415617</v>
+        <v>-0.007997857044601814</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.349170628098916</v>
+        <v>0.3145689665138877</v>
       </c>
       <c r="E41" t="n">
-        <v>1.670989466156157</v>
+        <v>1.75189348215951</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2276,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>4.610857572463164</v>
+        <v>4.35312498420164</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.05149777948179951</v>
+        <v>-0.06512147758884229</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1851714823630418</v>
+        <v>-0.1917963704717073</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1162740287772997</v>
+        <v>0.1456434503462334</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2959127675842259</v>
+        <v>0.2640995500882607</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1826413280804288</v>
+        <v>0.2142106453801598</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2452,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4197176892654852</v>
+        <v>-0.414062343471985</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2468941683900006</v>
+        <v>-0.2502874159980962</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1832558401110133</v>
+        <v>0.2148455268156591</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.112323242091871</v>
+        <v>1.985407461293418</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5999479324642051</v>
+        <v>-0.5848561964090404</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.208709967221525</v>
+        <v>-1.161745022572167</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9495523422499204</v>
+        <v>1.00654267688331</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2672,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.5449265666344589</v>
+        <v>-0.5327156072540881</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2250426581907612</v>
+        <v>0.2580174644296128</v>
       </c>
       <c r="F51" t="n">
-        <v>2.5561538023922</v>
+        <v>2.503419741439067</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1467202179304911</v>
+        <v>0.1227183371873322</v>
       </c>
       <c r="E52" t="n">
-        <v>1.431329774228191</v>
+        <v>1.504289722314776</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.3858583872164107</v>
+        <v>-0.3819758270689373</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6287770622847965</v>
+        <v>0.6751345675526652</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.952549660547801</v>
+        <v>1.833999212016538</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.413721771194295</v>
+        <v>-0.4083803561922786</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2892,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.7385594502276039</v>
+        <v>-0.7162103729340166</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02409722418962045</v>
+        <v>0.05041123502133552</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2936,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4165433796983846</v>
+        <v>-0.4110542325591993</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.03673946683824787</v>
+        <v>-0.01244202709309705</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2980,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.5897196016368804</v>
+        <v>-0.5751633945789532</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9465137139678432</v>
+        <v>-0.8248677996971884</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3024,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.6796583727047347</v>
+        <v>-0.6603932037745484</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F59" t="n">
-        <v>2.5561538023922</v>
+        <v>2.503419741439067</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3068,13 +3068,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.7971078266874621</v>
+        <v>-0.7716933075476197</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5673258592263436</v>
+        <v>0.6116464240027334</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6694231933130795</v>
+        <v>0.6180539341593796</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3156,13 +3156,13 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5290550187989552</v>
+        <v>-0.5176750526901596</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5703984193792663</v>
+        <v>0.6148208311802299</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3200,13 +3200,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1.140279112433022</v>
+        <v>1.06425705288926</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2902695505760468</v>
+        <v>0.2587517973544194</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3288,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1.792070676877708</v>
+        <v>1.681922493647927</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3332,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.3858583872164107</v>
+        <v>-0.3819758270689373</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.7808835777889471</v>
+        <v>-0.756318518437826</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2161769797689302</v>
+        <v>-0.1978274062588981</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3420,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.8101577660188762</v>
+        <v>-0.7840599857446277</v>
       </c>
       <c r="E68" t="n">
-        <v>3.188834181699942</v>
+        <v>3.320050627842827</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.281625391541205</v>
+        <v>-3.043726160454692</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3464,13 +3464,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1319136218483516</v>
+        <v>-0.1413269540460803</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5833031720215414</v>
+        <v>0.6281533413257157</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.7396175534166376</v>
+        <v>-0.7172130765716118</v>
       </c>
       <c r="E70" t="n">
-        <v>1.84919795502567</v>
+        <v>1.936009098454312</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3552,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.6355707398283356</v>
+        <v>-0.6186138855414134</v>
       </c>
       <c r="E71" t="n">
-        <v>2.933197176976778</v>
+        <v>3.055939950675111</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3596,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1534283866920344</v>
+        <v>-0.1617152613438502</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.281625391541205</v>
+        <v>-3.043726160454692</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3640,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.3622274159946608</v>
+        <v>-0.359582112495977</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6287770622847965</v>
+        <v>0.6751345675526652</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3684,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6429706135872401</v>
+        <v>0.5929863432194986</v>
       </c>
       <c r="E74" t="n">
-        <v>0.134094877664251</v>
+        <v>0.1640550119757136</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3728,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7780551207205271</v>
+        <v>0.720998174285824</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3772,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2680562321706721</v>
+        <v>-0.2703414887500009</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.01092996155369767</v>
+        <v>0.01422299319787435</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3816,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1.377646927839556</v>
+        <v>1.289196902256459</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3860,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.3622274159946608</v>
+        <v>-0.359582112495977</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6287770622847965</v>
+        <v>0.6751345675526652</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.6503841844748056</v>
+        <v>-0.6326517364677468</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4241445561001485</v>
+        <v>0.4637190495313921</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3948,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.662023319554175</v>
+        <v>-0.6436814764812944</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3473305522770824</v>
+        <v>0.3843588700939772</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.0832408751528069</v>
+        <v>-0.09520258671669941</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.3414180532770004</v>
+        <v>-0.3398622742899374</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.9465137139678432</v>
+        <v>-0.8248677996971884</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4080,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4500431321201173</v>
+        <v>0.4101600466313003</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4124,13 +4124,13 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.8034564458216635</v>
+        <v>-0.7777095293731912</v>
       </c>
       <c r="E84" t="n">
-        <v>1.081672428825594</v>
+        <v>1.143042185515663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4168,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4225392977695748</v>
+        <v>-0.4167362198389056</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7756454375944988</v>
+        <v>0.8268712306370024</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2020942848232485</v>
+        <v>0.1751931608881497</v>
       </c>
       <c r="E86" t="n">
-        <v>1.345912601976941</v>
+        <v>1.41604120278037</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4256,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.7226879023921003</v>
+        <v>-0.701169818370088</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4300,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.7667755352684994</v>
+        <v>-0.7429491366032229</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3417999440018217</v>
+        <v>0.3786449371744833</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4344,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.7717133501506561</v>
+        <v>-0.747628420245334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6435253510188251</v>
+        <v>0.6903717220046489</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4388,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1.642172725097951</v>
+        <v>1.539872811655268</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4432,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2606426612831065</v>
+        <v>0.2306760955017528</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4476,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3784448163288451</v>
+        <v>0.3423104338206893</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4520,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4916687061197687</v>
+        <v>-0.4822461908284612</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.01092996155369767</v>
+        <v>0.01422299319787435</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4564,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.714928479005854</v>
+        <v>-0.6938166583610562</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2373328988024518</v>
+        <v>0.2707150931395991</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4608,13 +4608,13 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.6256951100640221</v>
+        <v>-0.6092553182571913</v>
       </c>
       <c r="E95" t="n">
-        <v>0.014265031700268</v>
+        <v>0.04025313205334641</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.281625391541205</v>
+        <v>-3.043726160454692</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4652,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.4906106029307351</v>
+        <v>-0.4812434871908659</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6312351104071345</v>
+        <v>0.6776740932946625</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4696,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.3858583872164107</v>
+        <v>-0.3819758270689373</v>
       </c>
       <c r="E97" t="n">
-        <v>1.089661085223193</v>
+        <v>1.151295644177154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4740,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.477560663599321</v>
+        <v>-0.468876808993858</v>
       </c>
       <c r="E98" t="n">
-        <v>4.073731505741663</v>
+        <v>4.234279894961847</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4784,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.8450751712569844</v>
+        <v>-0.8171492057852705</v>
       </c>
       <c r="E99" t="n">
-        <v>0.09538061973742576</v>
+        <v>0.1240574815392565</v>
       </c>
       <c r="F99" t="n">
-        <v>2.5561538023922</v>
+        <v>2.503419741439067</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3135478207347855</v>
+        <v>0.2808112773815147</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4872,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>2.369795018090042</v>
+        <v>2.229398679774926</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4916,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.3883272946574891</v>
+        <v>-0.3843154688899929</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.3464535302528502</v>
+        <v>-0.3324222705847537</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.697847472147865</v>
+        <v>-2.489011570265316</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4960,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.4398216498571233</v>
+        <v>-0.4331137125862945</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.2856912853212318</v>
+        <v>-0.2870532160432549</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.9075030141765247</v>
+        <v>-0.9120690211956318</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2210421248188378</v>
+        <v>0.2845613806815633</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5034,6 +5034,2250 @@
         <v>1</v>
       </c>
       <c r="N104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.04684709527595925</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.05877102121740578</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.5109903617728579</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1443736874752347</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-3.043726160454692</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.114588190376874</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.5283705581578421</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.445844386557484</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.2307175627031421</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.3375226324688818</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.264304539696033</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.5076480163142072</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1494571008565386</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.0199998138970566</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.1184672268214833</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.7633374439009928</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1938944394441816</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.2065026904897708</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.4615236489848262</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.3131235106207311</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.03847216594856911</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.2034945795769851</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4943871521893003</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.659139053488036</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.4645317598976119</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.2924009687770961</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.09739246124828511</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.6570508583158976</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.3469008653995174</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.043726160454692</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.5287047927037072</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.8605199467184663</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.08216743942796133</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5261394340464828</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.838872238822916</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-3.043726160454692</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.428572707882197</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.73348192053003</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.680585555464466</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.289196902256459</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.098600485030711</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.1236125231152311</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-3.043726160454692</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.846365890213546</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.6657409565083896</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5494280433238001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.3709460870553897</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4846701369028696</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.6994986456407626</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.204625684759097</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.5170065835984293</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.569109367824279</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.7282428165851594</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.05422052363433143</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.8351978712619847</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.279092230002811</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3.771222639850537</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.4404668725953262</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.026224001383788</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.675767992884342</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.569109367824279</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.278167162242911</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.8248677996971884</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.090995816558467</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-3.043726160454692</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.06924080984891955</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.3037289277855637</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.6807815110723182</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.203990803323598</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.587530072775961</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.6269697491880404</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.6049102691609451</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4103890089494493</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.3505577797576199</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.489933585383358</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.078919160530232</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-1.42579031380558</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.9398801261558812</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.378162813913204</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-3.043726160454692</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.846365890213546</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1456434503462334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.180600436078625</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-1.014013353299802</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.9120690211956318</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.2845613806815633</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1.061808893358508</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.2225877822433716</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.8248677996971884</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
         <v>0</v>
       </c>
     </row>
